--- a/(自動計算) エレクトリックギター 最小二乗法データシート.xlsx
+++ b/(自動計算) エレクトリックギター 最小二乗法データシート.xlsx
@@ -164,19 +164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自己責任でお願い</t>
-    <rPh sb="0" eb="2">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セキニン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青色のセルに入力すれば、緑色のセルに結果が出力されます</t>
     <rPh sb="0" eb="2">
       <t>アオイロ</t>
@@ -192,6 +179,22 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己責任・検算に使ってください</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンザン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -202,7 +205,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -695,26 +698,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1048,22 +1051,22 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
@@ -1090,7 +1093,7 @@
         <f>1/A7</f>
         <v>1.6129032258064517</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="4">
         <f>POWER(B7,2)</f>
         <v>2.6014568158168578</v>
@@ -1108,7 +1111,7 @@
         <f t="shared" ref="B8:B11" si="0">1/A8</f>
         <v>2</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2">
         <f t="shared" ref="D8:D11" si="1">POWER(B8,2)</f>
         <v>4</v>
@@ -1126,7 +1129,7 @@
         <f t="shared" si="0"/>
         <v>2.3809523809523809</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>5.6689342403628116</v>
@@ -1144,7 +1147,7 @@
         <f t="shared" si="0"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
         <v>7.716049382716049</v>
@@ -1162,7 +1165,7 @@
         <f t="shared" si="0"/>
         <v>3.2258064516129035</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
         <v>10.405827263267431</v>
@@ -1212,13 +1215,13 @@
     </row>
     <row r="15" spans="1:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="16" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
@@ -1238,14 +1241,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>0.9</v>
       </c>
       <c r="B18" s="23">
         <f>SQRT(D18)</f>
         <v>4.4698993277254022</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="26">
         <f>A18*22.2</f>
         <v>19.98</v>
@@ -1256,14 +1259,14 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>1.35</v>
       </c>
       <c r="B19" s="24">
         <f t="shared" ref="B19:B22" si="4">SQRT(D19)</f>
         <v>5.4744862772683982</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="27">
         <f t="shared" ref="D19:D22" si="5">A19*22.2</f>
         <v>29.970000000000002</v>
@@ -1274,14 +1277,14 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>1.8</v>
       </c>
       <c r="B20" s="24">
         <f t="shared" si="4"/>
         <v>6.321392251711643</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="27">
         <f t="shared" si="5"/>
         <v>39.96</v>
@@ -1292,14 +1295,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>2.25</v>
       </c>
       <c r="B21" s="24">
         <f t="shared" si="4"/>
         <v>7.067531393633848</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="27">
         <f t="shared" si="5"/>
         <v>49.949999999999996</v>
@@ -1310,14 +1313,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>2.7</v>
       </c>
       <c r="B22" s="25">
         <f t="shared" si="4"/>
         <v>7.7420927403383644</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="28">
         <f t="shared" si="5"/>
         <v>59.940000000000005</v>
@@ -1367,13 +1370,13 @@
     </row>
     <row r="26" spans="1:5" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="27" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
@@ -1393,14 +1396,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="30">
+      <c r="A29" s="29">
         <v>0.9</v>
       </c>
       <c r="B29" s="23">
         <f>SQRT(D29)</f>
         <v>4.4698993277254022</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="26">
         <f>A29*22.2</f>
         <v>19.98</v>
@@ -1411,14 +1414,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="31">
+      <c r="A30" s="30">
         <v>1.35</v>
       </c>
       <c r="B30" s="24">
         <f t="shared" ref="B30:B33" si="10">SQRT(D30)</f>
         <v>5.4744862772683982</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="27">
         <f t="shared" ref="D30:D33" si="11">A30*22.2</f>
         <v>29.970000000000002</v>
@@ -1429,14 +1432,14 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="31">
+      <c r="A31" s="30">
         <v>1.8</v>
       </c>
       <c r="B31" s="24">
         <f t="shared" si="10"/>
         <v>6.321392251711643</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="27">
         <f t="shared" si="11"/>
         <v>39.96</v>
@@ -1447,14 +1450,14 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="31">
+      <c r="A32" s="30">
         <v>2.25</v>
       </c>
       <c r="B32" s="24">
         <f t="shared" si="10"/>
         <v>7.067531393633848</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="27">
         <f t="shared" si="11"/>
         <v>49.949999999999996</v>
@@ -1465,14 +1468,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <v>2.7</v>
       </c>
       <c r="B33" s="25">
         <f t="shared" si="10"/>
         <v>7.7420927403383644</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="28">
         <f t="shared" si="11"/>
         <v>59.940000000000005</v>
